--- a/public/Products.xlsx
+++ b/public/Products.xlsx
@@ -21,15 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Item Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selling Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcode</t>
   </si>
   <si>
     <t xml:space="preserve">Tomatoes</t>
@@ -208,17 +217,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.07222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1388888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.42777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9944444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.55555555555556"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -231,301 +243,553 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="0" t="n">
+      <c r="B28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>149</v>
       </c>
     </row>
@@ -553,7 +817,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.55"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
